--- a/results/shell.xlsx
+++ b/results/shell.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s\PycharmProjects\sorts\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1C5BEC2F-7BA9-45EC-AD86-924C26D0CC13}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="straight" sheetId="1" r:id="rId1"/>
     <sheet name="reversed" sheetId="2" r:id="rId2"/>
     <sheet name="sorted" sheetId="3" r:id="rId3"/>
     <sheet name="partly_sorted" sheetId="4" r:id="rId4"/>
+    <sheet name="same_elements" sheetId="5" r:id="rId5"/>
+    <sheet name="partly_same" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
   <si>
     <t>byte</t>
   </si>
@@ -34,8 +42,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +80,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -118,7 +134,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -150,9 +166,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,6 +218,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -359,14 +411,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -386,7 +438,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -397,19 +449,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0014002</v>
+        <v>1.4002000000000001E-3</v>
       </c>
       <c r="E2">
-        <v>0.0162088</v>
+        <v>1.6208799999999999E-2</v>
       </c>
       <c r="F2">
-        <v>0.1942168</v>
+        <v>0.19421679999999999</v>
       </c>
       <c r="G2">
-        <v>2.3183976</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>2.3183975999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -417,22 +469,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D3">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="E3">
-        <v>0.021802</v>
+        <v>2.1801999999999998E-2</v>
       </c>
       <c r="F3">
-        <v>0.2076252</v>
+        <v>0.20762520000000001</v>
       </c>
       <c r="G3">
         <v>3.286090199999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -443,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0016002</v>
+        <v>1.6002E-3</v>
       </c>
       <c r="E4">
-        <v>0.02380239999999999</v>
+        <v>2.3802399999999991E-2</v>
       </c>
       <c r="F4">
-        <v>0.3004266</v>
+        <v>0.30042659999999999</v>
       </c>
       <c r="G4">
-        <v>4.200177200000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>4.2001772000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -466,16 +518,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0011998</v>
+        <v>1.1998E-3</v>
       </c>
       <c r="E5">
-        <v>0.0192016</v>
+        <v>1.9201599999999999E-2</v>
       </c>
       <c r="F5">
-        <v>0.1990176</v>
+        <v>0.19901759999999999</v>
       </c>
       <c r="G5">
-        <v>3.62612</v>
+        <v>3.6261199999999998</v>
       </c>
     </row>
   </sheetData>
@@ -484,14 +536,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -511,7 +563,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -522,10 +574,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0014072</v>
+        <v>1.4071999999999999E-3</v>
       </c>
       <c r="E2">
-        <v>0.0154016</v>
+        <v>1.54016E-2</v>
       </c>
       <c r="F2">
         <v>0.1874236</v>
@@ -534,7 +586,7 @@
         <v>2.2800018</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -545,19 +597,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0009997999999999999</v>
+        <v>9.9979999999999991E-4</v>
       </c>
       <c r="E3">
-        <v>0.0158014</v>
+        <v>1.58014E-2</v>
       </c>
       <c r="F3">
-        <v>0.201618</v>
+        <v>0.20161799999999999</v>
       </c>
       <c r="G3">
-        <v>2.8668518</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>2.8668518000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -565,22 +617,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0001998</v>
+        <v>1.998E-4</v>
       </c>
       <c r="D4">
-        <v>0.0012002</v>
+        <v>1.2002E-3</v>
       </c>
       <c r="E4">
-        <v>0.0196008</v>
+        <v>1.9600800000000002E-2</v>
       </c>
       <c r="F4">
-        <v>0.3064198000000001</v>
+        <v>0.30641980000000008</v>
       </c>
       <c r="G4">
-        <v>4.2079644</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>4.2079643999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -591,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0011996</v>
+        <v>1.1996000000000001E-3</v>
       </c>
       <c r="E5">
-        <v>0.0163944</v>
+        <v>1.63944E-2</v>
       </c>
       <c r="F5">
-        <v>0.194424</v>
+        <v>0.19442400000000001</v>
       </c>
       <c r="G5">
-        <v>2.7238402</v>
+        <v>2.7238402000000002</v>
       </c>
     </row>
   </sheetData>
@@ -609,14 +661,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -636,7 +688,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -644,22 +696,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D2">
-        <v>0.0012068</v>
+        <v>1.2068000000000001E-3</v>
       </c>
       <c r="E2">
-        <v>0.0150082</v>
+        <v>1.5008199999999999E-2</v>
       </c>
       <c r="F2">
-        <v>0.1824088</v>
+        <v>0.18240880000000001</v>
       </c>
       <c r="G2">
-        <v>2.2357968</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>2.2357968000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -670,19 +722,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0009996</v>
+        <v>9.9960000000000001E-4</v>
       </c>
       <c r="E3">
-        <v>0.0156012</v>
+        <v>1.5601200000000001E-2</v>
       </c>
       <c r="F3">
-        <v>0.204218</v>
+        <v>0.20421800000000001</v>
       </c>
       <c r="G3">
-        <v>2.699638</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>2.6996380000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -690,22 +742,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D4">
-        <v>0.0012</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="E4">
-        <v>0.0182018</v>
+        <v>1.8201800000000001E-2</v>
       </c>
       <c r="F4">
-        <v>0.2994336</v>
+        <v>0.29943360000000002</v>
       </c>
       <c r="G4">
-        <v>4.2295662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>4.2295661999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -716,16 +768,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.001194</v>
+        <v>1.194E-3</v>
       </c>
       <c r="E5">
-        <v>0.0164012</v>
+        <v>1.6401200000000001E-2</v>
       </c>
       <c r="F5">
-        <v>0.1884162</v>
+        <v>0.18841620000000001</v>
       </c>
       <c r="G5">
-        <v>2.5642262</v>
+        <v>2.5642261999999998</v>
       </c>
     </row>
   </sheetData>
@@ -734,14 +786,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -761,7 +813,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -772,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0012072</v>
+        <v>1.2072000000000001E-3</v>
       </c>
       <c r="E2">
-        <v>0.0150076</v>
+        <v>1.5007599999999999E-2</v>
       </c>
       <c r="F2">
-        <v>0.1832118</v>
+        <v>0.18321180000000001</v>
       </c>
       <c r="G2">
-        <v>2.3077966</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>2.3077966000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -795,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0009998000000000001</v>
+        <v>9.9980000000000012E-4</v>
       </c>
       <c r="E3">
-        <v>0.0161952</v>
+        <v>1.61952E-2</v>
       </c>
       <c r="F3">
-        <v>0.2094166</v>
+        <v>0.20941660000000001</v>
       </c>
       <c r="G3">
-        <v>3.3182998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>3.3182998000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -815,42 +867,294 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D4">
-        <v>0.0011928</v>
+        <v>1.1927999999999999E-3</v>
       </c>
       <c r="E4">
-        <v>0.0192018</v>
+        <v>1.9201800000000002E-2</v>
       </c>
       <c r="F4">
-        <v>0.302433</v>
+        <v>0.30243300000000001</v>
       </c>
       <c r="G4">
-        <v>4.3043794</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>4.3043794000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0002002</v>
+        <v>2.0019999999999999E-4</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0010002</v>
+        <v>1.0001999999999999E-3</v>
       </c>
       <c r="E5">
-        <v>0.0170082</v>
+        <v>1.7008200000000001E-2</v>
       </c>
       <c r="F5">
-        <v>0.2004178</v>
+        <v>0.20041780000000001</v>
       </c>
       <c r="G5">
-        <v>3.5801088</v>
+        <v>3.5801088000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D930D76D-60CD-4F10-8E4D-5C54637F65FE}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>50</v>
+      </c>
+      <c r="D1">
+        <v>500</v>
+      </c>
+      <c r="E1">
+        <v>5000</v>
+      </c>
+      <c r="F1">
+        <v>50000</v>
+      </c>
+      <c r="G1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1.0009999999999999E-3</v>
+      </c>
+      <c r="E2">
+        <v>2.9028999999999999E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.273287</v>
+      </c>
+      <c r="G2">
+        <v>3.3771330000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1.5009999999999999E-3</v>
+      </c>
+      <c r="E3">
+        <v>1.9021E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.241287</v>
+      </c>
+      <c r="G3">
+        <v>3.0562800000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1.0009999999999999E-3</v>
+      </c>
+      <c r="E4">
+        <v>1.9519999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.246221</v>
+      </c>
+      <c r="G4">
+        <v>3.44815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>5.0100000000000003E-4</v>
+      </c>
+      <c r="D5">
+        <v>1.5020000000000001E-3</v>
+      </c>
+      <c r="E5">
+        <v>1.7017000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.26527699999999999</v>
+      </c>
+      <c r="G5">
+        <v>3.7474129999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0954CF9E-A75C-489D-B79D-FDCEAC1F7E53}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>50</v>
+      </c>
+      <c r="D1">
+        <v>500</v>
+      </c>
+      <c r="E1">
+        <v>5000</v>
+      </c>
+      <c r="F1">
+        <v>50000</v>
+      </c>
+      <c r="G1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1.0009999999999999E-3</v>
+      </c>
+      <c r="E2">
+        <v>2.4525000000000002E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.299313</v>
+      </c>
+      <c r="G2">
+        <v>3.3525119999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>5.0100000000000003E-4</v>
+      </c>
+      <c r="D3">
+        <v>1.5020000000000001E-3</v>
+      </c>
+      <c r="E3">
+        <v>2.7029000000000001E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.289802</v>
+      </c>
+      <c r="G3">
+        <v>4.0071859999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>6.5069999999999998E-3</v>
+      </c>
+      <c r="E4">
+        <v>3.2532999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.403922</v>
+      </c>
+      <c r="G4">
+        <v>5.9362009999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D5">
+        <v>2.0019999999999999E-3</v>
+      </c>
+      <c r="E5">
+        <v>2.9031000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.35991299999999998</v>
+      </c>
+      <c r="G5">
+        <v>4.6924489999999999</v>
       </c>
     </row>
   </sheetData>
